--- a/plots/chem.xlsx
+++ b/plots/chem.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\plots\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="6390" windowHeight="5175"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="102">
   <si>
     <t>物质名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -280,6 +275,162 @@
   </si>
   <si>
     <t>1333-74-0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲烷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>74-82-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碳酸钙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CaCO3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>471-34-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汞（水银）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>液态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7439-97-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银白色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Al</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7429-90-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>氮气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7727-37-9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>氩气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7440-37-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硝酸铵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NH4NO3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6484-52-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>氦气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7440-59-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>氧化铁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fe2O3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红棕色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1309-37-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -382,10 +533,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:K13" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:K13"/>
-  <sortState ref="A2:K13">
-    <sortCondition ref="I1:I26"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:K22" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:K22"/>
+  <sortState ref="A2:K22">
+    <sortCondition ref="I1:I22"/>
   </sortState>
   <tableColumns count="11">
     <tableColumn id="11" name="物质名称"/>
@@ -447,7 +598,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -482,7 +633,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -659,7 +810,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -667,11 +818,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
+      <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -756,392 +907,707 @@
         <v>1.63E-4</v>
       </c>
       <c r="K2">
-        <v>14300</v>
+        <v>14320</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>95</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="E3">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="G3">
-        <v>-218</v>
+        <v>-272.2</v>
       </c>
       <c r="H3">
-        <v>-183</v>
+        <v>-268.93</v>
       </c>
       <c r="I3">
-        <v>1.44</v>
+        <v>0.125</v>
       </c>
       <c r="J3">
-        <v>4.4299999999999999E-3</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="K3">
-        <v>920</v>
+        <v>5193</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="E4">
-        <v>36.5</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="G4">
-        <v>-114</v>
+        <v>-182.5</v>
       </c>
       <c r="H4">
-        <v>-85</v>
+        <v>-161.5</v>
       </c>
       <c r="I4">
-        <v>1.64</v>
+        <v>0.71699999999999997</v>
       </c>
       <c r="J4">
-        <v>70</v>
+        <v>2.15E-3</v>
       </c>
       <c r="K4">
-        <v>800</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="E5">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" t="s">
-        <v>59</v>
+        <v>85</v>
+      </c>
+      <c r="G5">
+        <v>-209.86</v>
       </c>
       <c r="H5">
-        <v>-78</v>
+        <v>-195.8</v>
       </c>
       <c r="I5">
-        <v>1.98</v>
+        <v>1.25</v>
       </c>
       <c r="J5">
-        <v>0.16900000000000001</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="K5">
-        <v>840</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
       </c>
       <c r="E6">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G6">
-        <v>-114</v>
+        <v>-218.4</v>
       </c>
       <c r="H6">
-        <v>78</v>
+        <v>-182.98</v>
       </c>
       <c r="I6">
-        <v>789</v>
-      </c>
-      <c r="J6" t="s">
-        <v>41</v>
+        <v>1.44</v>
+      </c>
+      <c r="J6">
+        <v>4.4299999999999999E-3</v>
       </c>
       <c r="K6">
-        <v>2420</v>
+        <v>920</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
       </c>
       <c r="E7">
-        <v>18</v>
+        <v>36.5</v>
       </c>
       <c r="F7" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>-114</v>
       </c>
       <c r="H7">
-        <v>100</v>
+        <v>-85</v>
       </c>
       <c r="I7">
-        <v>1000</v>
-      </c>
-      <c r="J7" t="s">
-        <v>7</v>
+        <v>1.64</v>
+      </c>
+      <c r="J7">
+        <v>70</v>
       </c>
       <c r="K7">
-        <v>4217</v>
+        <v>800</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="E8">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="G8">
-        <v>10</v>
+        <v>-189.2</v>
       </c>
       <c r="H8">
-        <v>337</v>
+        <v>-185.9</v>
       </c>
       <c r="I8">
-        <v>1831</v>
-      </c>
-      <c r="J8" t="s">
-        <v>41</v>
+        <v>1.784</v>
+      </c>
+      <c r="J8">
+        <v>5.8700000000000002E-3</v>
       </c>
       <c r="K8">
-        <v>1416</v>
+        <v>520</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="E9">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9">
-        <v>318</v>
+        <v>20</v>
+      </c>
+      <c r="G9" t="s">
+        <v>59</v>
       </c>
       <c r="H9">
-        <v>1390</v>
+        <v>-78.48</v>
       </c>
       <c r="I9">
-        <v>2130</v>
+        <v>1.98</v>
       </c>
       <c r="J9">
-        <v>109</v>
+        <v>0.16900000000000001</v>
       </c>
       <c r="K9">
-        <v>1489</v>
+        <v>840</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="E10">
-        <v>58.5</v>
+        <v>46</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G10">
-        <v>801</v>
+        <v>-114</v>
       </c>
       <c r="H10">
-        <v>1465</v>
+        <v>78</v>
       </c>
       <c r="I10">
-        <v>2165</v>
-      </c>
-      <c r="J10">
-        <v>36</v>
-      </c>
-      <c r="K10" t="s">
-        <v>7</v>
+        <v>789</v>
+      </c>
+      <c r="J10" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10">
+        <v>2420</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="E11">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>100</v>
+      </c>
+      <c r="I11">
+        <v>1000</v>
+      </c>
+      <c r="J11" t="s">
         <v>7</v>
       </c>
-      <c r="I11">
-        <v>2240</v>
-      </c>
-      <c r="J11">
-        <v>0.16500000000000001</v>
-      </c>
       <c r="K11">
-        <v>1223</v>
+        <v>4217</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="E12">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="F12" t="s">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="G12">
-        <v>1535</v>
-      </c>
-      <c r="H12">
-        <v>3000</v>
+        <v>169.6</v>
+      </c>
+      <c r="H12" t="s">
+        <v>92</v>
       </c>
       <c r="I12">
-        <v>7874</v>
+        <v>1720</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="K12">
-        <v>460</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13">
+        <v>98</v>
+      </c>
+      <c r="F13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13">
+        <v>10</v>
+      </c>
+      <c r="H13">
+        <v>337</v>
+      </c>
+      <c r="I13">
+        <v>1831</v>
+      </c>
+      <c r="J13" t="s">
+        <v>41</v>
+      </c>
+      <c r="K13">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14">
+        <v>40</v>
+      </c>
+      <c r="F14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14">
+        <v>318</v>
+      </c>
+      <c r="H14">
+        <v>1390</v>
+      </c>
+      <c r="I14">
+        <v>2130</v>
+      </c>
+      <c r="J14">
+        <v>109</v>
+      </c>
+      <c r="K14">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15">
+        <v>58.5</v>
+      </c>
+      <c r="F15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15">
+        <v>801</v>
+      </c>
+      <c r="H15">
+        <v>1465</v>
+      </c>
+      <c r="I15">
+        <v>2165</v>
+      </c>
+      <c r="J15">
+        <v>36</v>
+      </c>
+      <c r="K15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16">
+        <v>74</v>
+      </c>
+      <c r="F16" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I16">
+        <v>2240</v>
+      </c>
+      <c r="J16">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="K16">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17">
         <v>27</v>
       </c>
-      <c r="B13" t="s">
+      <c r="F17" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17">
+        <v>660</v>
+      </c>
+      <c r="H17">
+        <v>2327</v>
+      </c>
+      <c r="I17">
+        <v>2699</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18">
+        <v>100</v>
+      </c>
+      <c r="F18" t="s">
+        <v>71</v>
+      </c>
+      <c r="G18">
+        <v>1339</v>
+      </c>
+      <c r="H18" t="s">
+        <v>72</v>
+      </c>
+      <c r="I18">
+        <v>2930</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19">
+        <v>160</v>
+      </c>
+      <c r="F19" t="s">
+        <v>101</v>
+      </c>
+      <c r="G19">
+        <v>1565</v>
+      </c>
+      <c r="H19" t="s">
+        <v>99</v>
+      </c>
+      <c r="I19">
+        <v>5240</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20">
+        <v>56</v>
+      </c>
+      <c r="F20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20">
+        <v>1535</v>
+      </c>
+      <c r="H20">
+        <v>2750</v>
+      </c>
+      <c r="I20">
+        <v>7874</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
         <v>28</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C21" t="s">
         <v>23</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D21" t="s">
         <v>31</v>
       </c>
-      <c r="E13">
+      <c r="E21">
         <v>64</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F21" t="s">
         <v>30</v>
       </c>
-      <c r="G13">
+      <c r="G21">
         <v>1083</v>
       </c>
-      <c r="H13">
+      <c r="H21">
         <v>2562</v>
       </c>
-      <c r="I13">
+      <c r="I21">
         <v>8960</v>
       </c>
-      <c r="J13">
+      <c r="J21">
         <v>0</v>
       </c>
-      <c r="K13">
+      <c r="K21">
         <v>385</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22">
+        <v>201</v>
+      </c>
+      <c r="F22" t="s">
+        <v>77</v>
+      </c>
+      <c r="G22">
+        <v>-39</v>
+      </c>
+      <c r="H22">
+        <v>356.7</v>
+      </c>
+      <c r="I22">
+        <v>13590</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/plots/chem.xlsx
+++ b/plots/chem.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="125">
   <si>
     <t>物质名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -432,6 +432,97 @@
   <si>
     <t>1309-37-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7704-34-9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>氯气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cl2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄绿色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7782-50-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硫代硫酸钠（海波）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Na2S.SO3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7772-98-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硫化亚铁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FeS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1317-37-9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑褐色</t>
   </si>
 </sst>
 </file>
@@ -533,10 +624,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:K22" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:K22"/>
-  <sortState ref="A2:K22">
-    <sortCondition ref="I1:I22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:K27" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:K27"/>
+  <sortState ref="A2:K27">
+    <sortCondition ref="B1:B27"/>
   </sortState>
   <tableColumns count="11">
     <tableColumn id="11" name="物质名称"/>
@@ -810,7 +901,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -818,26 +909,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
+      <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.125" customWidth="1"/>
+    <col min="1" max="1" width="19.25" customWidth="1"/>
     <col min="2" max="2" width="9.75" customWidth="1"/>
-    <col min="3" max="3" width="11.75" customWidth="1"/>
-    <col min="4" max="4" width="7.75" customWidth="1"/>
-    <col min="5" max="5" width="9.75" customWidth="1"/>
+    <col min="3" max="5" width="7.75" customWidth="1"/>
     <col min="6" max="6" width="13.25" customWidth="1"/>
-    <col min="7" max="7" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.75" customWidth="1"/>
+    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5" customWidth="1"/>
     <col min="9" max="9" width="9.375" customWidth="1"/>
-    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
+    <col min="11" max="11" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="27" x14ac:dyDescent="0.15">
@@ -877,737 +966,912 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>28.959</v>
       </c>
       <c r="F2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G2">
-        <v>-259</v>
-      </c>
-      <c r="H2">
-        <v>-253</v>
+        <v>103</v>
+      </c>
+      <c r="G2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H2" t="s">
+        <v>106</v>
       </c>
       <c r="I2">
-        <v>8.8999999999999996E-2</v>
+        <v>1.2929999999999999</v>
       </c>
       <c r="J2">
-        <v>1.63E-4</v>
+        <v>2.4199999999999998E-3</v>
       </c>
       <c r="K2">
-        <v>14320</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="G3">
-        <v>-272.2</v>
+        <v>660</v>
       </c>
       <c r="H3">
-        <v>-268.93</v>
+        <v>2327</v>
       </c>
       <c r="I3">
-        <v>0.125</v>
+        <v>2699</v>
       </c>
       <c r="J3">
-        <v>2.9999999999999997E-4</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>5193</v>
+        <v>897</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
         <v>65</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="E4">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="G4">
-        <v>-182.5</v>
+        <v>-189.2</v>
       </c>
       <c r="H4">
-        <v>-161.5</v>
+        <v>-185.9</v>
       </c>
       <c r="I4">
-        <v>0.71699999999999997</v>
+        <v>1.784</v>
       </c>
       <c r="J4">
-        <v>2.15E-3</v>
+        <v>5.8700000000000002E-3</v>
       </c>
       <c r="K4">
-        <v>2510</v>
+        <v>520</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="E5">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="F5" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="G5">
-        <v>-209.86</v>
+        <v>-114</v>
       </c>
       <c r="H5">
-        <v>-195.8</v>
+        <v>78</v>
       </c>
       <c r="I5">
-        <v>1.25</v>
-      </c>
-      <c r="J5">
-        <v>3.0000000000000001E-3</v>
+        <v>789</v>
+      </c>
+      <c r="J5" t="s">
+        <v>41</v>
       </c>
       <c r="K5">
-        <v>1042</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="E6">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6">
-        <v>-218.4</v>
-      </c>
-      <c r="H6">
-        <v>-182.98</v>
+        <v>56</v>
+      </c>
+      <c r="G6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="I6">
-        <v>1.44</v>
+        <v>2240</v>
       </c>
       <c r="J6">
-        <v>4.4299999999999999E-3</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="K6">
-        <v>920</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="E7">
-        <v>36.5</v>
+        <v>100</v>
       </c>
       <c r="F7" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="G7">
-        <v>-114</v>
-      </c>
-      <c r="H7">
-        <v>-85</v>
+        <v>1339</v>
+      </c>
+      <c r="H7" t="s">
+        <v>72</v>
       </c>
       <c r="I7">
-        <v>1.64</v>
+        <v>2930</v>
       </c>
       <c r="J7">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>800</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
         <v>65</v>
       </c>
       <c r="D8" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="E8">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="G8">
-        <v>-189.2</v>
+        <v>-182.5</v>
       </c>
       <c r="H8">
-        <v>-185.9</v>
+        <v>-161.5</v>
       </c>
       <c r="I8">
-        <v>1.784</v>
+        <v>0.71699999999999997</v>
       </c>
       <c r="J8">
-        <v>5.8700000000000002E-3</v>
+        <v>2.15E-3</v>
       </c>
       <c r="K8">
-        <v>520</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>114</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>115</v>
       </c>
       <c r="E9">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" t="s">
-        <v>59</v>
+        <v>116</v>
+      </c>
+      <c r="G9">
+        <v>-101</v>
       </c>
       <c r="H9">
-        <v>-78.48</v>
+        <v>-34</v>
       </c>
       <c r="I9">
-        <v>1.98</v>
+        <v>3.21</v>
       </c>
       <c r="J9">
-        <v>0.16900000000000001</v>
+        <v>0.627</v>
       </c>
       <c r="K9">
-        <v>840</v>
+        <v>476</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E10">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10">
-        <v>-114</v>
+        <v>20</v>
+      </c>
+      <c r="G10" t="s">
+        <v>59</v>
       </c>
       <c r="H10">
-        <v>78</v>
+        <v>-78.48</v>
       </c>
       <c r="I10">
-        <v>789</v>
-      </c>
-      <c r="J10" t="s">
-        <v>41</v>
+        <v>1.98</v>
+      </c>
+      <c r="J10">
+        <v>0.16900000000000001</v>
       </c>
       <c r="K10">
-        <v>2420</v>
+        <v>840</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="E11">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="F11" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="G11">
+        <v>1083</v>
+      </c>
+      <c r="H11">
+        <v>2562</v>
+      </c>
+      <c r="I11">
+        <v>8960</v>
+      </c>
+      <c r="J11">
         <v>0</v>
       </c>
-      <c r="H11">
-        <v>100</v>
-      </c>
-      <c r="I11">
-        <v>1000</v>
-      </c>
-      <c r="J11" t="s">
-        <v>7</v>
-      </c>
       <c r="K11">
-        <v>4217</v>
+        <v>385</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="E12">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="F12" t="s">
-        <v>91</v>
+        <v>24</v>
       </c>
       <c r="G12">
-        <v>169.6</v>
-      </c>
-      <c r="H12" t="s">
-        <v>92</v>
+        <v>1535</v>
+      </c>
+      <c r="H12">
+        <v>2750</v>
       </c>
       <c r="I12">
-        <v>1720</v>
+        <v>7874</v>
       </c>
       <c r="J12">
-        <v>192</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>1760</v>
+        <v>460</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>97</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="E13">
-        <v>98</v>
+        <v>160</v>
       </c>
       <c r="F13" t="s">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="G13">
-        <v>10</v>
-      </c>
-      <c r="H13">
-        <v>337</v>
+        <v>1565</v>
+      </c>
+      <c r="H13" t="s">
+        <v>99</v>
       </c>
       <c r="I13">
-        <v>1831</v>
-      </c>
-      <c r="J13" t="s">
-        <v>41</v>
+        <v>5240</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>1416</v>
+        <v>670</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>121</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>122</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="D14" t="s">
-        <v>52</v>
+        <v>124</v>
       </c>
       <c r="E14">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="F14" t="s">
-        <v>55</v>
+        <v>123</v>
       </c>
       <c r="G14">
-        <v>318</v>
-      </c>
-      <c r="H14">
-        <v>1390</v>
+        <v>1194</v>
+      </c>
+      <c r="H14" t="s">
+        <v>106</v>
       </c>
       <c r="I14">
-        <v>2130</v>
+        <v>4840</v>
       </c>
       <c r="J14">
-        <v>109</v>
-      </c>
-      <c r="K14">
-        <v>1489</v>
+        <v>6.1999999999999998E-3</v>
+      </c>
+      <c r="K14" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E15">
-        <v>58.5</v>
+        <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="G15">
-        <v>801</v>
+        <v>-259</v>
       </c>
       <c r="H15">
-        <v>1465</v>
+        <v>-253</v>
       </c>
       <c r="I15">
-        <v>2165</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="J15">
-        <v>36</v>
-      </c>
-      <c r="K15" t="s">
-        <v>7</v>
+        <v>1.63E-4</v>
+      </c>
+      <c r="K15">
+        <v>14320</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D16" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="E16">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="F16" t="s">
-        <v>56</v>
-      </c>
-      <c r="G16" t="s">
-        <v>58</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>93</v>
+        <v>6</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>100</v>
       </c>
       <c r="I16">
-        <v>2240</v>
-      </c>
-      <c r="J16">
-        <v>0.16500000000000001</v>
+        <v>1000</v>
+      </c>
+      <c r="J16" t="s">
+        <v>7</v>
       </c>
       <c r="K16">
-        <v>1223</v>
+        <v>4217</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="D17" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="E17">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="F17" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="G17">
-        <v>660</v>
+        <v>10</v>
       </c>
       <c r="H17">
-        <v>2327</v>
+        <v>337</v>
       </c>
       <c r="I17">
-        <v>2699</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
+        <v>1831</v>
+      </c>
+      <c r="J17" t="s">
+        <v>41</v>
       </c>
       <c r="K17">
-        <v>897</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18">
+        <v>36.5</v>
+      </c>
+      <c r="F18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18">
+        <v>-114</v>
+      </c>
+      <c r="H18">
+        <v>-85</v>
+      </c>
+      <c r="I18">
+        <v>1.64</v>
+      </c>
+      <c r="J18">
         <v>70</v>
       </c>
-      <c r="D18" t="s">
-        <v>73</v>
-      </c>
-      <c r="E18">
-        <v>100</v>
-      </c>
-      <c r="F18" t="s">
-        <v>71</v>
-      </c>
-      <c r="G18">
-        <v>1339</v>
-      </c>
-      <c r="H18" t="s">
-        <v>72</v>
-      </c>
-      <c r="I18">
-        <v>2930</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
       <c r="K18">
-        <v>2620</v>
+        <v>800</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B19" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C19" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D19" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="E19">
-        <v>160</v>
+        <v>4</v>
       </c>
       <c r="F19" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="G19">
-        <v>1565</v>
-      </c>
-      <c r="H19" t="s">
-        <v>99</v>
+        <v>-272.2</v>
+      </c>
+      <c r="H19">
+        <v>-268.93</v>
       </c>
       <c r="I19">
-        <v>5240</v>
+        <v>0.125</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="K19">
-        <v>670</v>
+        <v>5193</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="D20" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="E20">
-        <v>56</v>
+        <v>201</v>
       </c>
       <c r="F20" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="G20">
-        <v>1535</v>
+        <v>-39</v>
       </c>
       <c r="H20">
-        <v>2750</v>
+        <v>356.7</v>
       </c>
       <c r="I20">
-        <v>7874</v>
+        <v>13590</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>460</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="B21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21">
         <v>28</v>
       </c>
-      <c r="C21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21">
-        <v>64</v>
-      </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="G21">
-        <v>1083</v>
+        <v>-209.86</v>
       </c>
       <c r="H21">
-        <v>2562</v>
+        <v>-195.8</v>
       </c>
       <c r="I21">
-        <v>8960</v>
+        <v>1.25</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="K21">
-        <v>385</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="B22" t="s">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="C22" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="D22" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="E22">
-        <v>201</v>
+        <v>158</v>
       </c>
       <c r="F22" t="s">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="G22">
-        <v>-39</v>
+        <v>48</v>
       </c>
       <c r="H22">
-        <v>356.7</v>
+        <v>100</v>
       </c>
       <c r="I22">
-        <v>13590</v>
+        <v>1690</v>
       </c>
       <c r="J22">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="K22" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23">
+        <v>58.5</v>
+      </c>
+      <c r="F23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23">
+        <v>801</v>
+      </c>
+      <c r="H23">
+        <v>1465</v>
+      </c>
+      <c r="I23">
+        <v>2165</v>
+      </c>
+      <c r="J23">
+        <v>36</v>
+      </c>
+      <c r="K23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24">
+        <v>40</v>
+      </c>
+      <c r="F24" t="s">
+        <v>55</v>
+      </c>
+      <c r="G24">
+        <v>318</v>
+      </c>
+      <c r="H24">
+        <v>1390</v>
+      </c>
+      <c r="I24">
+        <v>2130</v>
+      </c>
+      <c r="J24">
+        <v>109</v>
+      </c>
+      <c r="K24">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25">
+        <v>80</v>
+      </c>
+      <c r="F25" t="s">
+        <v>91</v>
+      </c>
+      <c r="G25">
+        <v>169.6</v>
+      </c>
+      <c r="H25" t="s">
+        <v>92</v>
+      </c>
+      <c r="I25">
+        <v>1720</v>
+      </c>
+      <c r="J25">
+        <v>192</v>
+      </c>
+      <c r="K25">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26">
+        <v>32</v>
+      </c>
+      <c r="F26" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26">
+        <v>-218.4</v>
+      </c>
+      <c r="H26">
+        <v>-182.98</v>
+      </c>
+      <c r="I26">
+        <v>1.44</v>
+      </c>
+      <c r="J26">
+        <v>4.4299999999999999E-3</v>
+      </c>
+      <c r="K26">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>107</v>
+      </c>
+      <c r="B27" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27" t="s">
+        <v>109</v>
+      </c>
+      <c r="D27" t="s">
+        <v>111</v>
+      </c>
+      <c r="E27">
+        <v>32</v>
+      </c>
+      <c r="F27" t="s">
+        <v>110</v>
+      </c>
+      <c r="G27">
+        <v>112.8</v>
+      </c>
+      <c r="H27">
+        <v>444.6</v>
+      </c>
+      <c r="I27">
+        <v>2360</v>
+      </c>
+      <c r="J27">
         <v>0</v>
       </c>
-      <c r="K22">
-        <v>140</v>
+      <c r="K27">
+        <v>850</v>
       </c>
     </row>
   </sheetData>

--- a/plots/chem.xlsx
+++ b/plots/chem.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\Blog\rec\plots\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="6390" windowHeight="5175"/>
   </bookViews>
@@ -627,7 +632,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:K27" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="A1:K27"/>
   <sortState ref="A2:K27">
-    <sortCondition ref="B1:B27"/>
+    <sortCondition ref="G1:G27"/>
   </sortState>
   <tableColumns count="11">
     <tableColumn id="11" name="物质名称"/>
@@ -901,7 +906,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -913,7 +918,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
+      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -966,912 +971,912 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="D2" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="E2">
-        <v>28.959</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G2" t="s">
-        <v>106</v>
-      </c>
-      <c r="H2" t="s">
-        <v>106</v>
+        <v>96</v>
+      </c>
+      <c r="G2">
+        <v>-272</v>
+      </c>
+      <c r="H2">
+        <v>-269</v>
       </c>
       <c r="I2">
-        <v>1.2929999999999999</v>
+        <v>0.125</v>
       </c>
       <c r="J2">
-        <v>2.4199999999999998E-3</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="K2">
-        <v>1005</v>
+        <v>5193</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="E3">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="G3">
-        <v>660</v>
+        <v>-259</v>
       </c>
       <c r="H3">
-        <v>2327</v>
+        <v>-253</v>
       </c>
       <c r="I3">
-        <v>2699</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1.63E-4</v>
       </c>
       <c r="K3">
-        <v>897</v>
+        <v>14320</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="E4">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>88</v>
+        <v>10</v>
       </c>
       <c r="G4">
-        <v>-189.2</v>
+        <v>-218</v>
       </c>
       <c r="H4">
-        <v>-185.9</v>
+        <v>-183</v>
       </c>
       <c r="I4">
-        <v>1.784</v>
+        <v>1.44</v>
       </c>
       <c r="J4">
-        <v>5.8700000000000002E-3</v>
+        <v>4.4299999999999999E-3</v>
       </c>
       <c r="K4">
-        <v>520</v>
+        <v>920</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="E5">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="G5">
-        <v>-114</v>
+        <v>-210</v>
       </c>
       <c r="H5">
-        <v>78</v>
+        <v>-196</v>
       </c>
       <c r="I5">
-        <v>789</v>
-      </c>
-      <c r="J5" t="s">
-        <v>41</v>
+        <v>1.25</v>
+      </c>
+      <c r="J5">
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="K5">
-        <v>2420</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="E6">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
+      </c>
+      <c r="G6">
+        <v>-189</v>
+      </c>
+      <c r="H6">
+        <v>-186</v>
       </c>
       <c r="I6">
-        <v>2240</v>
+        <v>1.784</v>
       </c>
       <c r="J6">
-        <v>0.16500000000000001</v>
+        <v>5.8700000000000002E-3</v>
       </c>
       <c r="K6">
-        <v>1223</v>
+        <v>520</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D7" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E7">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G7">
-        <v>1339</v>
-      </c>
-      <c r="H7" t="s">
-        <v>72</v>
+        <v>-182</v>
+      </c>
+      <c r="H7">
+        <v>-161</v>
       </c>
       <c r="I7">
-        <v>2930</v>
+        <v>0.71699999999999997</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>2.15E-3</v>
       </c>
       <c r="K7">
-        <v>2620</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="E8">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="F8" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="G8">
-        <v>-182.5</v>
+        <v>-114</v>
       </c>
       <c r="H8">
-        <v>-161.5</v>
+        <v>78</v>
       </c>
       <c r="I8">
-        <v>0.71699999999999997</v>
-      </c>
-      <c r="J8">
-        <v>2.15E-3</v>
+        <v>789</v>
+      </c>
+      <c r="J8" t="s">
+        <v>41</v>
       </c>
       <c r="K8">
-        <v>2510</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>113</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>114</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="E9">
-        <v>71</v>
+        <v>36.5</v>
       </c>
       <c r="F9" t="s">
-        <v>116</v>
+        <v>49</v>
       </c>
       <c r="G9">
-        <v>-101</v>
+        <v>-114</v>
       </c>
       <c r="H9">
-        <v>-34</v>
+        <v>-85</v>
       </c>
       <c r="I9">
-        <v>3.21</v>
+        <v>1.64</v>
       </c>
       <c r="J9">
-        <v>0.627</v>
+        <v>70</v>
       </c>
       <c r="K9">
-        <v>476</v>
+        <v>800</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>114</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>115</v>
       </c>
       <c r="E10">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" t="s">
-        <v>59</v>
+        <v>116</v>
+      </c>
+      <c r="G10">
+        <v>-101</v>
       </c>
       <c r="H10">
-        <v>-78.48</v>
+        <v>-34</v>
       </c>
       <c r="I10">
-        <v>1.98</v>
+        <v>3.21</v>
       </c>
       <c r="J10">
-        <v>0.16900000000000001</v>
+        <v>0.627</v>
       </c>
       <c r="K10">
-        <v>840</v>
+        <v>476</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="E11">
-        <v>64</v>
+        <v>201</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="G11">
-        <v>1083</v>
+        <v>-39</v>
       </c>
       <c r="H11">
-        <v>2562</v>
+        <v>357</v>
       </c>
       <c r="I11">
-        <v>8960</v>
+        <v>13590</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>385</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E12">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="G12">
-        <v>1535</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>2750</v>
+        <v>100</v>
       </c>
       <c r="I12">
-        <v>7874</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
+        <v>1000</v>
+      </c>
+      <c r="J12" t="s">
+        <v>7</v>
       </c>
       <c r="K12">
-        <v>460</v>
+        <v>4217</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13">
         <v>98</v>
       </c>
-      <c r="C13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" t="s">
-        <v>100</v>
-      </c>
-      <c r="E13">
-        <v>160</v>
-      </c>
       <c r="F13" t="s">
-        <v>101</v>
+        <v>48</v>
       </c>
       <c r="G13">
-        <v>1565</v>
-      </c>
-      <c r="H13" t="s">
-        <v>99</v>
+        <v>10</v>
+      </c>
+      <c r="H13">
+        <v>337</v>
       </c>
       <c r="I13">
-        <v>5240</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
+        <v>1831</v>
+      </c>
+      <c r="J13" t="s">
+        <v>41</v>
       </c>
       <c r="K13">
-        <v>670</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B14" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C14" t="s">
         <v>109</v>
       </c>
       <c r="D14" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="E14">
-        <v>88</v>
+        <v>158</v>
       </c>
       <c r="F14" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G14">
-        <v>1194</v>
-      </c>
-      <c r="H14" t="s">
-        <v>106</v>
+        <v>48</v>
+      </c>
+      <c r="H14">
+        <v>100</v>
       </c>
       <c r="I14">
-        <v>4840</v>
+        <v>1690</v>
       </c>
       <c r="J14">
-        <v>6.1999999999999998E-3</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="K14" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="F15" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="G15">
-        <v>-259</v>
+        <v>113</v>
       </c>
       <c r="H15">
-        <v>-253</v>
+        <v>445</v>
       </c>
       <c r="I15">
-        <v>8.8999999999999996E-2</v>
+        <v>2360</v>
       </c>
       <c r="J15">
-        <v>1.63E-4</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>14320</v>
+        <v>850</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="E16">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="F16" t="s">
-        <v>6</v>
+        <v>91</v>
       </c>
       <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>100</v>
+        <v>170</v>
+      </c>
+      <c r="H16" t="s">
+        <v>92</v>
       </c>
       <c r="I16">
-        <v>1000</v>
-      </c>
-      <c r="J16" t="s">
-        <v>7</v>
+        <v>1720</v>
+      </c>
+      <c r="J16">
+        <v>192</v>
       </c>
       <c r="K16">
-        <v>4217</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="E17">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="F17" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="G17">
-        <v>10</v>
+        <v>318</v>
       </c>
       <c r="H17">
-        <v>337</v>
+        <v>1390</v>
       </c>
       <c r="I17">
-        <v>1831</v>
-      </c>
-      <c r="J17" t="s">
-        <v>41</v>
+        <v>2130</v>
+      </c>
+      <c r="J17">
+        <v>109</v>
       </c>
       <c r="K17">
-        <v>1416</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="E18">
-        <v>36.5</v>
+        <v>27</v>
       </c>
       <c r="F18" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="G18">
-        <v>-114</v>
+        <v>660</v>
       </c>
       <c r="H18">
-        <v>-85</v>
+        <v>2327</v>
       </c>
       <c r="I18">
-        <v>1.64</v>
+        <v>2699</v>
       </c>
       <c r="J18">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>800</v>
+        <v>897</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="D19" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="E19">
-        <v>4</v>
+        <v>58.5</v>
       </c>
       <c r="F19" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="G19">
-        <v>-272.2</v>
+        <v>801</v>
       </c>
       <c r="H19">
-        <v>-268.93</v>
+        <v>1465</v>
       </c>
       <c r="I19">
-        <v>0.125</v>
+        <v>2165</v>
       </c>
       <c r="J19">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="K19">
-        <v>5193</v>
+        <v>36</v>
+      </c>
+      <c r="K19" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="D20" t="s">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="E20">
-        <v>201</v>
+        <v>64</v>
       </c>
       <c r="F20" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="G20">
-        <v>-39</v>
+        <v>1083</v>
       </c>
       <c r="H20">
-        <v>356.7</v>
+        <v>2562</v>
       </c>
       <c r="I20">
-        <v>13590</v>
+        <v>8960</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>140</v>
+        <v>385</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="B21" t="s">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="C21" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="D21" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="E21">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="F21" t="s">
-        <v>85</v>
+        <v>123</v>
       </c>
       <c r="G21">
-        <v>-209.86</v>
-      </c>
-      <c r="H21">
-        <v>-195.8</v>
+        <v>1194</v>
+      </c>
+      <c r="H21" t="s">
+        <v>106</v>
       </c>
       <c r="I21">
-        <v>1.25</v>
+        <v>4840</v>
       </c>
       <c r="J21">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="K21">
-        <v>1042</v>
+        <v>6.1999999999999998E-3</v>
+      </c>
+      <c r="K21" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>117</v>
+        <v>68</v>
       </c>
       <c r="B22" t="s">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="C22" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="D22" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="E22">
-        <v>158</v>
+        <v>100</v>
       </c>
       <c r="F22" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
       <c r="G22">
-        <v>48</v>
-      </c>
-      <c r="H22">
-        <v>100</v>
+        <v>1339</v>
+      </c>
+      <c r="H22" t="s">
+        <v>72</v>
       </c>
       <c r="I22">
-        <v>1690</v>
+        <v>2930</v>
       </c>
       <c r="J22">
-        <v>70.099999999999994</v>
-      </c>
-      <c r="K22" t="s">
-        <v>120</v>
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>2620</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C23" t="s">
         <v>23</v>
       </c>
       <c r="D23" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E23">
-        <v>58.5</v>
+        <v>56</v>
       </c>
       <c r="F23" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="G23">
-        <v>801</v>
+        <v>1535</v>
       </c>
       <c r="H23">
-        <v>1465</v>
+        <v>2750</v>
       </c>
       <c r="I23">
-        <v>2165</v>
+        <v>7874</v>
       </c>
       <c r="J23">
-        <v>36</v>
-      </c>
-      <c r="K23" t="s">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>460</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="C24" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="D24" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="E24">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="F24" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="G24">
-        <v>318</v>
-      </c>
-      <c r="H24">
-        <v>1390</v>
+        <v>1565</v>
+      </c>
+      <c r="H24" t="s">
+        <v>99</v>
       </c>
       <c r="I24">
-        <v>2130</v>
+        <v>5240</v>
       </c>
       <c r="J24">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>1489</v>
+        <v>670</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="B25" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="C25" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="D25" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="E25">
-        <v>80</v>
+        <v>28.959</v>
       </c>
       <c r="F25" t="s">
-        <v>91</v>
-      </c>
-      <c r="G25">
-        <v>169.6</v>
+        <v>103</v>
+      </c>
+      <c r="G25" t="s">
+        <v>106</v>
       </c>
       <c r="H25" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="I25">
-        <v>1720</v>
+        <v>1.2929999999999999</v>
       </c>
       <c r="J25">
-        <v>192</v>
+        <v>2.4199999999999998E-3</v>
       </c>
       <c r="K25">
-        <v>1760</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D26" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="E26">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="F26" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26">
-        <v>-218.4</v>
-      </c>
-      <c r="H26">
-        <v>-182.98</v>
+        <v>56</v>
+      </c>
+      <c r="G26" t="s">
+        <v>58</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="I26">
-        <v>1.44</v>
+        <v>2240</v>
       </c>
       <c r="J26">
-        <v>4.4299999999999999E-3</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="K26">
-        <v>920</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="C27" t="s">
-        <v>109</v>
+        <v>18</v>
       </c>
       <c r="D27" t="s">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="E27">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>110</v>
-      </c>
-      <c r="G27">
-        <v>112.8</v>
+        <v>20</v>
+      </c>
+      <c r="G27" t="s">
+        <v>59</v>
       </c>
       <c r="H27">
-        <v>444.6</v>
+        <v>-78</v>
       </c>
       <c r="I27">
-        <v>2360</v>
+        <v>1.98</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>0.16900000000000001</v>
       </c>
       <c r="K27">
-        <v>850</v>
+        <v>840</v>
       </c>
     </row>
   </sheetData>
